--- a/DATA_goal/Junction_Flooding_88.xlsx
+++ b/DATA_goal/Junction_Flooding_88.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41520.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>16.05</v>
+        <v>1.6</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.65</v>
+        <v>1.06</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>34.17</v>
+        <v>3.42</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>26.49</v>
+        <v>2.65</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>12.56</v>
+        <v>1.26</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>38.35</v>
+        <v>3.84</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>19.43</v>
+        <v>1.94</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.93</v>
+        <v>0.79</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>11.82</v>
+        <v>1.18</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>13.49</v>
+        <v>1.35</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.09</v>
+        <v>1.41</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.56</v>
+        <v>1.26</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>17.37</v>
+        <v>1.74</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>183.76</v>
+        <v>18.38</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>34.84</v>
+        <v>3.48</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.59</v>
+        <v>1.16</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>22.6</v>
+        <v>2.26</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.44</v>
+        <v>1.14</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>19.64</v>
+        <v>1.96</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.24</v>
+        <v>1.02</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.04</v>
+        <v>1.1</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.2</v>
+        <v>1.42</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>34.4</v>
+        <v>3.44</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.19</v>
+        <v>0.62</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>14.49</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41520.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>16.24</v>
+        <v>1.62</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>35.18</v>
+        <v>3.52</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>28.07</v>
+        <v>2.81</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.72</v>
+        <v>1.27</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>48.48</v>
+        <v>4.85</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>19.66</v>
+        <v>1.97</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.49</v>
+        <v>0.85</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.45</v>
+        <v>1.24</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.05</v>
+        <v>1.41</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>14.77</v>
+        <v>1.48</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.71</v>
+        <v>1.27</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>17.89</v>
+        <v>1.79</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="R3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD3" s="4" t="n">
         <v>1.48</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>35.55</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>23.51</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>23.76</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>14.77</v>
-      </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>44.39</v>
+        <v>4.44</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.43</v>
+        <v>0.64</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41520.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.03</v>
+        <v>1.4</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.09</v>
+        <v>1.01</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>30.46</v>
+        <v>3.05</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>24.46</v>
+        <v>2.45</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.98</v>
+        <v>1.1</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>43.65</v>
+        <v>4.36</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.99</v>
+        <v>1.7</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.41</v>
+        <v>0.74</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.86</v>
+        <v>1.09</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.85</v>
+        <v>1.29</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.98</v>
+        <v>1.1</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.51</v>
+        <v>1.55</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>159.78</v>
+        <v>15.98</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>30.73</v>
+        <v>3.07</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>20.42</v>
+        <v>2.04</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.66</v>
+        <v>1.07</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.9</v>
+        <v>0.19</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>21.03</v>
+        <v>2.1</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.02</v>
+        <v>0.8</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>39.84</v>
+        <v>3.98</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.67</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41520.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.7</v>
+        <v>1.97</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.46</v>
+        <v>1.45</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>42.82</v>
+        <v>4.28</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>34.83</v>
+        <v>3.48</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.45</v>
+        <v>1.54</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>59.26</v>
+        <v>5.93</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.85</v>
+        <v>2.39</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.55</v>
+        <v>1.06</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.58</v>
+        <v>1.56</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.18</v>
+        <v>1.72</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.14</v>
+        <v>1.81</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.95</v>
+        <v>0.5</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.41</v>
+        <v>1.54</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>21.9</v>
+        <v>2.19</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.05</v>
+        <v>1.3</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>227.31</v>
+        <v>22.73</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>43.09</v>
+        <v>4.31</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.23</v>
+        <v>1.42</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>28.89</v>
+        <v>2.89</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.14</v>
+        <v>1.51</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>28.91</v>
+        <v>2.89</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.16</v>
+        <v>1.12</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.14</v>
+        <v>1.31</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.04</v>
+        <v>1.8</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>53.88</v>
+        <v>5.39</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>17.79</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41520.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>21.91</v>
+        <v>2.19</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>16.19</v>
+        <v>1.62</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>47.64</v>
+        <v>4.76</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>38.92</v>
+        <v>3.89</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>17.19</v>
+        <v>1.72</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>66.95999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>26.53</v>
+        <v>2.65</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>11.79</v>
+        <v>1.18</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>17.45</v>
+        <v>1.75</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>19.11</v>
+        <v>1.91</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>20.21</v>
+        <v>2.02</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.51</v>
+        <v>0.55</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>17.14</v>
+        <v>1.71</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>24.41</v>
+        <v>2.44</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>14.43</v>
+        <v>1.44</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>253.64</v>
+        <v>25.36</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>47.95</v>
+        <v>4.8</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>15.82</v>
+        <v>1.58</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>32.25</v>
+        <v>3.22</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>16.9</v>
+        <v>1.69</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>32.56</v>
+        <v>3.26</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>13.98</v>
+        <v>1.4</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>12.37</v>
+        <v>1.24</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>14.56</v>
+        <v>1.46</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>20.08</v>
+        <v>2.01</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>60.91</v>
+        <v>6.09</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>8.91</v>
+        <v>0.89</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>19.78</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41520.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>10.67</v>
+        <v>1.07</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>7.79</v>
+        <v>0.78</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q7" s="4" t="n">
         <v>0.71</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>23.19</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>18.78</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>36.19</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>7.11</v>
-      </c>
       <c r="R7" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>119.73</v>
+        <v>11.97</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>23.47</v>
+        <v>2.35</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>7.7</v>
+        <v>0.77</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>15.7</v>
+        <v>1.57</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>8.19</v>
+        <v>0.82</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>17.08</v>
+        <v>1.71</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>7.13</v>
+        <v>0.71</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>9.77</v>
+        <v>0.98</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>33.12</v>
+        <v>3.31</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41520.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>22.1</v>
+        <v>2.21</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>16.41</v>
+        <v>1.64</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>48.06</v>
+        <v>4.81</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>39.4</v>
+        <v>3.94</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>17.35</v>
+        <v>1.73</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>65.56</v>
+        <v>6.56</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>26.76</v>
+        <v>2.68</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11.93</v>
+        <v>1.19</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>17.7</v>
+        <v>1.77</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>19.29</v>
+        <v>1.93</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>20.41</v>
+        <v>2.04</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>17.29</v>
+        <v>1.73</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>24.65</v>
+        <v>2.46</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>14.5</v>
+        <v>1.45</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>255.92</v>
+        <v>25.59</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>48.32</v>
+        <v>4.83</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>15.96</v>
+        <v>1.6</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>32.56</v>
+        <v>3.26</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>17.09</v>
+        <v>1.71</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>32.17</v>
+        <v>3.22</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>14.1</v>
+        <v>1.41</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>12.45</v>
+        <v>1.25</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>14.65</v>
+        <v>1.47</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>20.27</v>
+        <v>2.03</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>59.49</v>
+        <v>5.95</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>19.96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41520.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>5.67</v>
+        <v>0.57</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>4.09</v>
+        <v>0.41</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>4.42</v>
+        <v>0.44</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>23.08</v>
+        <v>2.31</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>4.38</v>
+        <v>0.44</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>4.95</v>
+        <v>0.49</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>5.24</v>
+        <v>0.52</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>4.44</v>
+        <v>0.44</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>6.35</v>
+        <v>0.64</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>3.83</v>
+        <v>0.38</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>60.25</v>
+        <v>6.03</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>12.69</v>
+        <v>1.27</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>4.09</v>
+        <v>0.41</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>8.49</v>
+        <v>0.85</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>4.36</v>
+        <v>0.44</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>10.63</v>
+        <v>1.06</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>3.25</v>
+        <v>0.32</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>3.82</v>
+        <v>0.38</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>21.46</v>
+        <v>2.15</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41520.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>13.07</v>
+        <v>1.31</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>9.67</v>
+        <v>0.97</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>28.42</v>
+        <v>2.84</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>23.23</v>
+        <v>2.32</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>10.25</v>
+        <v>1.02</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>38.26</v>
+        <v>3.83</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>15.82</v>
+        <v>1.58</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7.03</v>
+        <v>0.7</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>11.41</v>
+        <v>1.14</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>12.08</v>
+        <v>1.21</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.28</v>
+        <v>0.33</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>10.23</v>
+        <v>1.02</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>14.54</v>
+        <v>1.45</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>148.31</v>
+        <v>14.83</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>28.51</v>
+        <v>2.85</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>9.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>19.17</v>
+        <v>1.92</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>10.08</v>
+        <v>1.01</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>18.66</v>
+        <v>1.87</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>8.34</v>
+        <v>0.83</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>11.99</v>
+        <v>1.2</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>34.55</v>
+        <v>3.45</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>11.8</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_88.xlsx
+++ b/DATA_goal/Junction_Flooding_88.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,9 +447,9 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
@@ -467,7 +467,7 @@
     <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41520.34027777778</v>
+        <v>44781.92361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.6</v>
+        <v>1.07</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.06</v>
+        <v>0.73</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.42</v>
+        <v>2.36</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.65</v>
+        <v>1.71</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.26</v>
+        <v>0.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.84</v>
+        <v>2.42</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.94</v>
+        <v>1.33</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.79</v>
+        <v>0.52</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.18</v>
+        <v>0.73</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.35</v>
+        <v>0.93</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.41</v>
+        <v>1.02</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.26</v>
+        <v>0.86</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.74</v>
+        <v>1.17</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>18.38</v>
+        <v>12.42</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.48</v>
+        <v>2.38</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.16</v>
+        <v>0.8</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.26</v>
+        <v>1.5</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.14</v>
+        <v>0.8</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.96</v>
+        <v>1.36</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.02</v>
+        <v>0.71</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.92</v>
+        <v>0.66</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.1</v>
+        <v>0.76</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.42</v>
+        <v>0.99</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.44</v>
+        <v>2.16</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.62</v>
+        <v>0.41</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41520.34722222222</v>
+        <v>44781.93055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0.18</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.52</v>
+        <v>3.65</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.81</v>
+        <v>2.89</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>4.85</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="T3" s="4" t="n">
-        <v>18.61</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.12</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>4.44</v>
+        <v>4.42</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41520.35416666666</v>
+        <v>44781.9375</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.4</v>
+        <v>0.99</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.01</v>
+        <v>0.73</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.05</v>
+        <v>2.19</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.45</v>
+        <v>1.73</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.1</v>
+        <v>0.77</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.36</v>
+        <v>3.3</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.7</v>
+        <v>1.22</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.54</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.09</v>
+        <v>0.76</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.22</v>
+        <v>0.88</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.29</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.35</v>
+        <v>0.24</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.1</v>
+        <v>0.79</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.55</v>
+        <v>1.11</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>15.98</v>
+        <v>11.29</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.07</v>
+        <v>2.22</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.01</v>
+        <v>0.73</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.04</v>
+        <v>1.46</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.07</v>
+        <v>0.77</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.1</v>
+        <v>1.61</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.58</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.68</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.28</v>
+        <v>0.92</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.98</v>
+        <v>3.02</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41520.36111111111</v>
+        <v>44781.94444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.97</v>
+        <v>0.47</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.45</v>
+        <v>0.34</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.28</v>
+        <v>1.04</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.48</v>
+        <v>0.8</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.54</v>
+        <v>0.36</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.93</v>
+        <v>1.78</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.39</v>
+        <v>0.58</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.06</v>
+        <v>0.26</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.56</v>
+        <v>0.34</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.72</v>
+        <v>0.42</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.81</v>
+        <v>0.46</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.54</v>
+        <v>0.38</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.19</v>
+        <v>0.52</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.3</v>
+        <v>0.34</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>22.73</v>
+        <v>4.99</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.31</v>
+        <v>1.07</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.42</v>
+        <v>0.35</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.89</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.51</v>
+        <v>0.36</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.24</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.89</v>
+        <v>0.85</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.26</v>
+        <v>0.31</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.12</v>
+        <v>0.28</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.31</v>
+        <v>0.33</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.8</v>
+        <v>0.44</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.39</v>
+        <v>1.64</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.18</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.78</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41520.36805555555</v>
+        <v>44781.95137731481</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.19</v>
+        <v>8.06</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.62</v>
+        <v>5.98</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.12</v>
+        <v>0.7</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4.76</v>
+        <v>17.75</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.89</v>
+        <v>14.17</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.72</v>
+        <v>6.3</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>6.7</v>
+        <v>24.07</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.65</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.18</v>
+        <v>4.38</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.75</v>
+        <v>6.23</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.91</v>
+        <v>7.12</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>2.02</v>
+        <v>7.64</v>
       </c>
       <c r="N6" s="4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.55</v>
       </c>
-      <c r="O6" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="S6" s="4" t="n">
-        <v>0.08</v>
+        <v>0.32</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>25.36</v>
+        <v>89.93000000000001</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>4.8</v>
+        <v>17.81</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.58</v>
+        <v>5.9</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>3.22</v>
+        <v>11.8</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.69</v>
+        <v>6.22</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.25</v>
+        <v>0.98</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>3.26</v>
+        <v>11.83</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.4</v>
+        <v>5.21</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.24</v>
+        <v>4.69</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.46</v>
+        <v>5.5</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>2.01</v>
+        <v>7.49</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>6.09</v>
+        <v>21.69</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.89</v>
+        <v>3.24</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41520.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41520.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>25.59</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41520.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41520.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>14.83</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41520.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>55.65</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>18.04</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>4.77</v>
+        <v>7.38</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_88.xlsx
+++ b/DATA_goal/Junction_Flooding_88.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44781.92361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.33</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.36</v>
+        <v>23.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.71</v>
+        <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.18</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.42</v>
+        <v>24.23</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.35</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.25</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.32</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.19</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.96</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.65</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>12.42</v>
+        <v>124.22</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.38</v>
+        <v>23.83</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.98</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.5</v>
+        <v>14.96</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.8</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.6</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.99</v>
+        <v>9.94</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.16</v>
+        <v>21.63</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.93055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.66</v>
+        <v>16.6</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.2</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.65</v>
+        <v>36.49</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.89</v>
+        <v>28.94</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.94</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.85</v>
+        <v>48.47</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.03</v>
+        <v>20.33</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.74</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.46</v>
+        <v>14.6</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.57</v>
+        <v>15.67</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.48</v>
       </c>
       <c r="Q3" s="4" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>192.96</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>36.76</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>24.29</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>24.62</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>1.14</v>
       </c>
-      <c r="R3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.11</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>4.42</v>
+        <v>44.24</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.65</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.9375</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.93</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.31</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.19</v>
+        <v>21.91</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.73</v>
+        <v>17.28</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.3</v>
+        <v>33.02</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.19</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.36</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.55</v>
       </c>
       <c r="L4" s="4" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.88</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.09</v>
-      </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>11.29</v>
+        <v>112.86</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.22</v>
+        <v>22.17</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.61</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.61</v>
+        <v>16.1</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.44</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.84</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.83</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.23</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.02</v>
+        <v>30.23</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.96</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.94444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.67</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.43</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.8</v>
+        <v>7.99</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.78</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.56</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.18</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.55</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>4.99</v>
+        <v>49.92</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.67</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.61</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.5</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.84</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.39</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.64</v>
+        <v>16.38</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_88.xlsx
+++ b/DATA_goal/Junction_Flooding_88.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,13 +655,13 @@
         <v>44781.92361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.73</v>
+        <v>10.726</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.33</v>
+        <v>7.333</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.4</v>
+        <v>3.404</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>23.56</v>
@@ -670,88 +670,88 @@
         <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.18</v>
+        <v>8.176</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>24.23</v>
+        <v>24.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.35</v>
+        <v>13.347</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.25</v>
+        <v>5.245</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.32</v>
+        <v>7.323</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.31</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.19</v>
+        <v>10.191</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.65</v>
+        <v>8.647</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.96</v>
+        <v>7.955</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.65</v>
+        <v>2.648</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.09</v>
+        <v>1.093</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>124.22</v>
+        <v>124.223</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>23.83</v>
+        <v>23.834</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.98</v>
+        <v>7.982</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.96</v>
+        <v>14.964</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>8.048999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>13.6</v>
+        <v>13.597</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.63</v>
+        <v>6.629</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.56</v>
+        <v>7.562</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.94</v>
+        <v>9.942</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.68</v>
+        <v>2.682</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>21.63</v>
+        <v>21.628</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.08</v>
+        <v>4.075</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.98</v>
+        <v>9.978</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.93055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>16.6</v>
+        <v>16.597</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.2</v>
+        <v>12.198</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.77</v>
+        <v>1.765</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>36.49</v>
+        <v>36.491</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>28.94</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.94</v>
+        <v>12.939</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>48.47</v>
+        <v>48.467</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>20.33</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>8.875</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.74</v>
+        <v>12.736</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.6</v>
+        <v>14.604</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.67</v>
+        <v>15.671</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.01</v>
+        <v>4.006</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.16</v>
+        <v>13.159</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>18.48</v>
+        <v>18.478</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.44</v>
+        <v>11.437</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.34</v>
+        <v>1.339</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0.78</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>192.96</v>
+        <v>192.961</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>36.76</v>
+        <v>36.761</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.15</v>
+        <v>12.146</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>24.29</v>
+        <v>24.291</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>12.79</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.13</v>
+        <v>2.135</v>
       </c>
       <c r="Z3" s="4" t="n">
         <v>24.62</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.73</v>
+        <v>10.728</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.69</v>
+        <v>9.686</v>
       </c>
       <c r="AC3" s="4" t="n">
         <v>11.33</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>15.37</v>
+        <v>15.375</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.136</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>44.24</v>
+        <v>44.241</v>
       </c>
       <c r="AG3" s="4" t="n">
         <v>6.65</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.19</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.9375</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.93</v>
+        <v>9.925000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.31</v>
+        <v>7.307</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.09</v>
+        <v>1.087</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>21.91</v>
+        <v>21.912</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>17.28</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.74</v>
+        <v>7.735</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>33.02</v>
+        <v>33.021</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.19</v>
+        <v>12.187</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.36</v>
+        <v>5.358</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>7.55</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>8.776</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>9.449999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.37</v>
+        <v>2.372</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.9</v>
+        <v>7.895</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.08</v>
+        <v>11.079</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.93</v>
+        <v>6.927</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.882</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>112.86</v>
+        <v>112.858</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>22.17</v>
+        <v>22.172</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.29</v>
+        <v>7.288</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>14.61</v>
+        <v>14.606</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.66</v>
+        <v>7.657</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.29</v>
+        <v>1.288</v>
       </c>
       <c r="Z4" s="4" t="n">
         <v>16.1</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.44</v>
+        <v>6.437</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.84</v>
+        <v>5.843</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.83</v>
+        <v>6.834</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.23</v>
+        <v>9.231999999999999</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.722</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>30.23</v>
+        <v>30.232</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.96</v>
+        <v>3.961</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.112</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>4.34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.95137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>14.17</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>24.07</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>89.93000000000001</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>17.81</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.38</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_88.xlsx
+++ b/DATA_goal/Junction_Flooding_88.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,40 +967,40 @@
         <v>44781.94444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.67</v>
+        <v>4.673</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.41</v>
+        <v>3.413</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.705</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>10.43</v>
+        <v>10.432</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.99</v>
+        <v>7.991</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.62</v>
+        <v>3.624</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>17.78</v>
+        <v>17.783</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.79</v>
+        <v>5.789</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.56</v>
+        <v>2.556</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.4</v>
+        <v>3.404</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.18</v>
+        <v>4.177</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.55</v>
+        <v>4.551</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>1.08</v>
@@ -1009,13 +1009,13 @@
         <v>3.76</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.24</v>
+        <v>5.239</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.41</v>
+        <v>3.415</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.642</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.25</v>
@@ -1024,46 +1024,150 @@
         <v>49.92</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>10.67</v>
+        <v>10.669</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>3.47</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.94</v>
+        <v>6.938</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.61</v>
+        <v>3.608</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.676</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.5</v>
+        <v>8.499000000000001</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.07</v>
+        <v>3.065</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.84</v>
+        <v>2.842</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.31</v>
+        <v>3.312</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.39</v>
+        <v>4.394</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.529</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>16.38</v>
+        <v>16.382</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.83</v>
+        <v>1.828</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>4.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.95137731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>89.93000000000001</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>7.38</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_88.xlsx
+++ b/DATA_goal/Junction_Flooding_88.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,40 +967,40 @@
         <v>44781.94444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.673</v>
+        <v>4.67</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.413</v>
+        <v>3.41</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.705</v>
+        <v>0.7</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>10.432</v>
+        <v>10.43</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.991</v>
+        <v>7.99</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.624</v>
+        <v>3.62</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>17.783</v>
+        <v>17.78</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.789</v>
+        <v>5.79</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.556</v>
+        <v>2.56</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.404</v>
+        <v>3.4</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.177</v>
+        <v>4.18</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.551</v>
+        <v>4.55</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>1.08</v>
@@ -1009,13 +1009,13 @@
         <v>3.76</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.239</v>
+        <v>5.24</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.415</v>
+        <v>3.41</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.642</v>
+        <v>0.64</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.25</v>
@@ -1024,150 +1024,46 @@
         <v>49.92</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>10.669</v>
+        <v>10.67</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>3.47</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.938</v>
+        <v>6.94</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.608</v>
+        <v>3.61</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.676</v>
+        <v>0.68</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.499000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.065</v>
+        <v>3.07</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.842</v>
+        <v>2.84</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.312</v>
+        <v>3.31</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.394</v>
+        <v>4.39</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.529</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>16.382</v>
+        <v>16.38</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.828</v>
+        <v>1.83</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>4.34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.95137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>14.17</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>24.07</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>89.93000000000001</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>17.81</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.38</v>
       </c>
     </row>
   </sheetData>
